--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/55_Malatya_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/55_Malatya_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C6C504-4684-40B5-AE92-08EA282D97C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA60C580-DA15-458C-A80F-99D1CB552C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{6E0F06ED-4C15-4E2A-96B9-E8F2FBC33365}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{8101801A-6258-473C-91C2-5450978E2BFD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -955,14 +955,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1CA350C0-9832-4409-B730-E30009F02440}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F4EB9B84-1295-4597-B24D-082D5080652A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D94E4833-EFC1-4361-831F-69391A118154}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F301C2C4-77B5-49B5-8628-936B9FBC665A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{B6F3BD07-B99D-4C4B-A257-F585502AD33A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{8A7721FA-DFF6-4DD5-9368-7571463F9E74}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{3C1100AA-1F94-4098-83B1-D4FA3FE90A4F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{7B5BA8F0-9725-4878-857B-2B88D23B6F57}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{CB8E9D9C-AAD1-468B-BBBC-8218BA6316CF}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BCEC7426-3843-4090-BB5F-5659D6856C89}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E922C424-A212-46B2-8853-8ACF74344D59}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{633470AF-3EF2-4EBE-A68B-01AD201670AF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{7A6FAA68-593A-4A87-A77A-D6D19F0C31E8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{AE7EE889-8B97-403D-B1E0-8A682D28E62E}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F0C60A7D-FD29-4A60-AEE3-EA176613C297}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{64504244-7F5A-4E96-A9EF-B01AD94A377E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2465CF64-62CF-4F16-8D41-6E5D3279D1D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CEEB06-885F-4A6B-A09F-655A2C086F7C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2613,18 +2613,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2ADD73A-5502-4E05-8D07-EBB55DCD63C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19B2D4CF-97E6-4DE3-BAA9-05B72FB253B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A0E5D47-304A-4C54-8EA4-F0F26E1681B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{231461EC-906D-46D3-80E6-C29807452E7C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9324CA1-9067-4CC1-9B35-C2D1C48E3563}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{28020463-C275-495A-B79B-D20E03D30E9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E90254EB-4CBF-42E9-A674-B0C142B725B9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{847D8FB5-0DD7-4E42-A13A-8595DE216626}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4BA573F9-92E2-446D-B6CF-73A046218E42}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ACA35480-EA79-49B7-A32A-F62A621240DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D45927E-547C-4F69-B7A9-3B5BDFDBF3F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{295A0CA0-DECE-4FDE-912B-7E02D4E23352}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA899410-C06D-4C01-B2E6-8DD445EF2A2A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{642C6AA5-D6D1-4345-BE3B-095EFFF02078}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0A4EDCB-A2D9-4F44-90AF-42305655F98E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7198E22B-B1C4-4550-8211-302FB4807E2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{143398EC-226E-4702-8996-1FDFB42D907F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{557D4995-4C0B-48A3-B866-FE2E83C6452A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1DEA2DB-5CC6-461E-87D2-5A7706681015}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8624362-B723-4584-B60D-DBB8A7BF8362}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C87A3A14-71B8-4D31-BC12-6F03FFFA43DE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AA208929-6DD3-48A3-AFAD-603E6365BB03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF7484DB-1F59-4C33-95AC-1FBB72389C2E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D46D652-1692-4FE8-8985-5AD21098A4FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2637,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9535B9F-E81C-43B0-A665-886665F14041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E04E6C-5304-4DA4-92F0-72496B909DF8}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3887,18 +3887,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A4FD6C2-0393-45F9-A989-166E36AFDD8F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26F3CBCB-0328-4EF6-BE12-991BD39F3CA6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4E7C15ED-42CD-414B-8208-E26A3D0B7213}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43161140-2414-43F6-BA29-8F26808EB084}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC537B8F-8F28-4D2D-BEA5-14719284042E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0D254935-9F82-4EBD-AFE0-363D82DB27AD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B019EBEE-EE32-4240-8106-751B5CB659A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52F6CB96-597A-4E5A-B365-64D1752352B0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EABD2826-F923-425D-A60B-1855B6FE76BA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE050A05-9AF4-4E5C-8557-B6E6DD7A8591}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51C80729-BA64-4424-B359-9F0F59B74049}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B777869D-E731-479F-B086-C461FD59CE16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D691269-53E5-4797-9359-576427A719AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9065BD1-C77B-42F6-B984-5CBC24A96053}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D50AEB63-3EBE-4DE6-8E58-59CA994CE786}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7EC96646-0F15-49EB-925C-23F0E47F1F41}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18D2B758-ABBD-474A-80EC-C6CA61C0FAC7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E3BDA5E0-802D-4E6B-B83A-A0856E4C1582}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6311096A-8335-4433-B0CD-A80A9394E518}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7A4B562-B662-4ECD-87D9-1463A6E26138}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5ED73E3A-659B-41B0-929C-2A525CF225C6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DF5556CC-990A-409C-884E-0F8EE39E4ECC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9D98A17-E08B-4A49-A58F-B91E4A94D378}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA0403B2-8363-4A3A-8217-1B34ADAEF236}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3911,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375B663A-EF2F-4BE2-9946-6C87F8C39131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7388C6-0CBA-4B21-9C2D-7007CA4A5A64}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5157,18 +5157,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2613B35-59FE-461E-9003-451A670B1630}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAD4130E-01F8-43F7-98BC-7A194BE84F54}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0317F7B-1146-4FE7-9E6D-79708FA3365C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{841E5D53-6FA8-45C6-AE7C-FDBD603D850E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24F9BE3E-6D4D-4558-B283-2A7159D037E4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8184224B-00A1-4F81-B62C-C83DA65FB4CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBA704F8-CD9E-45D0-94C8-246CE8E53415}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AD86659-935A-42FD-A3E7-6ECC72B353DB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65ED358B-293C-4C44-93F2-0CE4CA296AC8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F957C4A8-82C6-4C79-9998-A937FCC5EF55}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91F8433D-DB85-4048-8728-FC59F311931B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFA1B1CE-2FD5-4354-B790-1A0906F5519F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89EF8900-0390-4E04-BC82-027CF2F4C374}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2CE607C-B1C0-474F-B44A-10A708F4FE7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BF85D8D-AB86-43E8-818E-570295388397}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{288D2961-5827-4752-ACB7-DBD2CD889B91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{877410B2-EC6A-4336-816E-56C1690C1280}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C87021F0-3F47-4C62-8751-52C55A7F753E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9F77E35-A77D-4B33-AE85-8B5EF77F2CCF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B967705D-EABE-4875-8ABC-53BFF5A3831C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{46A8F018-0334-4C9C-A071-01002A5F0369}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A8C5F572-B86B-4822-8CF9-EAD4A3FB54C2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43E6EC32-5EC1-4337-9753-E6683664F081}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0739CD6D-F2F2-4881-8869-A13FA47507FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5181,7 +5181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED9E47E-737C-4F99-AD9B-0EB2FE33A12A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83895C67-E957-4E5C-B79A-24FC10CD1A07}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6411,18 +6411,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{415A16AC-1D7A-461E-818F-A0952381B638}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA1D1E3C-467D-4F17-BE86-AA0620F03071}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DC1F2CD-3F22-484A-B60E-A9F2985C04E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FFA3737-EAC1-4F7F-8D13-8D6363C94803}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BF8D94A-362E-4D94-9AF6-5280C02B5107}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{03705401-CB8B-4B27-9D21-F6F9FCED44C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82F9401C-158C-4A3B-BCC5-2D684B2F7B4B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14D238CA-883B-4738-B616-69C26E77CCAF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CA67A57-6CDF-4600-8AD3-2448E548CA0C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{768A5AFD-2842-428D-BEE6-47BB74B1C11E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{577EC09A-F05A-4223-B8E2-8AADB85E1926}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BD43226-0C9B-4376-91A0-4B9EC95F2157}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9163BEFB-B4D0-4078-83F4-1EC9AF0CF5A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F362D07B-CC96-461A-8997-2D0B6359B519}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{30CCB657-EF74-4DAE-8998-A62C968FF9D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E75CD94D-E782-470F-89C4-42D06CC1C575}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED0D7611-907D-4743-8396-ECF5B4D77BB3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ED73C9CD-15B4-4F8E-965F-C3DB233B468C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{587F0A39-E995-4BF9-9C16-ECD69405CBDF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D406E4D5-BBCC-42DF-AC16-6D93615F6252}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6BD51F9-00AB-4C52-B73A-54087C82EB40}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{205B65FB-D8E6-43B2-811A-20E1B2AB614E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91724DF1-3FF9-44B5-98D6-5FC91C73EB98}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF5A5440-3921-4E61-9A29-783581DE26E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6435,7 +6435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDE6D0A-8A08-43EA-9DEA-0FF9864EDD95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E7BAEF-7BA8-44C1-AB8C-DA7E92F1D9FC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7714,18 +7714,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B8D77F78-2AD6-42A3-8AE6-B45DE3C2F231}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F09890B8-5377-47B7-808A-E89EDDC1F8CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A54CB924-A93E-4EA4-B125-78481F5F7A39}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCD32D19-312B-4E7C-B6A0-8DC5FE86FD77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7C2ADBA-C3F8-4F86-BD87-6641A7F61BC8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0C670032-22F0-4F52-B3AA-BF557E909EDE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E671AD4-31AA-4422-BE2D-206A6CFD3424}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F55130AE-411C-4385-A036-462A293B1256}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{546E9EC4-392C-45AB-B754-91377D728C95}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DC4DB915-C42F-4466-AB98-1E53BA232D0F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0426B36E-6ACB-4510-870D-9C694B4AC957}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28621907-9E64-4B18-A4A5-F0B123A4BCB4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC278CD3-E741-499D-B312-65655C14C8AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7EE05742-D811-4E1D-9C00-625A0005EFDF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BCD7FC2-A278-472B-9DBE-4E108715C94C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1EBDB928-4E04-429F-B42B-22127602CDBD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D9259A5-85D1-4AEF-A192-E1B7E17A36C6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B88B75D7-2782-46F9-AE87-D74904287A07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60DAFDD1-5CDB-4066-AC20-02B2F80371D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8D67631-EB7E-4670-B9FA-81065AC667A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E558FD7C-3560-40B4-9432-27817FFC4545}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3DFFE3A4-F857-4F56-90E7-F72B204D85D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9B8A26C-29E2-42C1-BF37-88C5BD324E3B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{251D9257-ABDD-4F3D-B821-CF6F32FD57C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7738,7 +7738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C261A6-4215-4AE5-B58C-81DC1D224D45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FC2C1E-0F44-43CE-B293-A79229B505D6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9017,18 +9017,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BE9F01F-41CC-4E4C-823F-3EF96A9F814B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94FB56CF-C34E-402E-969E-BF5807B5A13B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1233E257-FB16-41A5-946E-106B5D1D1FCB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{176237D7-3618-4F73-BD57-A87F7C91812C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{105C8255-E43C-48B9-83AC-7A171171DAFE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0B52C1C8-9D84-4059-AEC6-6A3E231D9AB6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E80B6DA3-DC37-47D8-8A87-D705E0462E3E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{598D123F-4E5E-4337-AFA4-9F487D87C776}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FDEF926-FE89-4EA2-A3BC-FE889B5BC0BB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DDA5CE8B-FA6C-4ABD-A923-C3D4C25579D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8E4B9A31-ACD2-44A1-8120-CDBE5860BD15}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13104531-54CA-4FEA-B1C2-000310F72AE5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2533556E-DBDE-4153-89EE-762CD114DFCA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D45500E-DA42-4AEF-B3BB-E240AC537022}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FFADC155-C043-4799-9C48-137F5B6D022A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{139E1D93-7516-4CFB-A77E-CB0A7EEA7E3C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E35251CC-039F-4B9B-839D-448687CEC1AC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2BA44150-1AA5-44C1-A192-909E91128B46}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1C0454DD-9441-48FD-B0E2-CF5C3E262007}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFB7BA08-1FAC-420F-8BBB-03D0025B7AC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A56EAF8F-5D5F-4849-B632-3B75DCDDAE97}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{54B180E0-0513-4772-8454-EA8C16C134BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0770F562-5B2A-4C62-A1B0-7D6112F5A975}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33307D8F-4950-4BB8-BE7A-33E1BFE4EDAC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9041,7 +9041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6671D-8FB4-4D9D-8D18-A9810D457CE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA0B08B-B86C-4D1C-9E46-E2B569B35332}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10321,18 +10321,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60B05286-0113-41A6-A1DE-89EB25C7D75E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38344F35-6E47-4A4F-9511-476BFA0E34E8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17ED55EE-1C69-4636-82D7-A1EF7270EED5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7B308A9-6542-4097-AE99-DC79037ACA73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7580EDD0-466D-41FD-8E79-BAC6EB145523}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A9CDC6F8-FEB9-48DD-8251-7079A133DEF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E0219A7-EC49-4613-BEBE-BA24B605DD35}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3892D22-4807-4C53-9921-B32F6BE91542}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C52BD07F-2103-4B5F-82B4-69276F9603EC}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6FE99A90-91D3-473E-A227-30A8B77BE117}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8DED2132-87C4-4931-B4A2-3281273F0CB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0505AFD-D347-40E8-8339-279303BABCC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A38BA9F4-C587-4464-B5DB-8AA57AA2C44E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F70E9E3-7B10-4630-BB43-425E6FA34648}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2329E5A-24B6-480E-A11F-861C065BBD48}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1EAFAB9A-97DC-4FE6-A193-23C6E29CEEC7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7458DFE9-D7D0-45E0-90F4-F896438D933A}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{268AB65E-8296-4A68-B310-C4C699F5FC64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9028989D-A43E-4348-9475-247236E1A3D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35142B1E-761F-4F67-B340-F6B225E78E67}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3DF777F4-1B2A-42B5-B18A-7E71EAF696CE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9F59D4BF-DF8A-46DE-A933-C0A28AB01448}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C403144-0A3D-4F10-AD70-EDD8AC159866}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C9E6C65-3C7B-4A05-8EF7-C223F2D3DB59}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10345,7 +10345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39C19F7-E51B-475A-9A76-6586245C5E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AF13D9-578C-49A0-A83B-D07723A44D82}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11625,18 +11625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26FA1C09-5CFA-4351-A545-8082BCCA889D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EDCC764-A4D7-488F-9A61-6D945AF3E1BF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D30B59A-2992-42DF-8F3E-935FFCCE1FE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF1B3C3E-4951-4378-A835-DADF7D922655}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F20F31C8-F50D-4A5A-A043-2592DB207517}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{70978AE9-0229-4A27-9005-E57ECB871C75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{321899F6-D2A6-4C27-8020-910938C1030A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F010EEE-C17D-4091-B29A-A31F33399B8F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{338CB1F8-833C-4720-A6D6-68487B9B7E36}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{373483F9-409C-44E8-A9B6-CD4F224206B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09A1C1A9-A96A-42D5-AB1C-AB456CF40BF1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{434A668B-EF4B-4721-B761-84AC83595829}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4EBA0473-D49E-4F06-B427-83473EEFE51F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AEBC18F-8DBE-4C99-B92E-93893DFD5D72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1F499289-825A-4362-842C-B16E62FF831C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9AD595C9-DB16-4826-9DDA-2291276840AD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0549152-4117-4194-92F4-2CA4D135C7A6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DA3AD48-CB45-42F8-9E57-AA534AB018DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23CF1BF9-A735-48CA-8753-D7FF24FE92F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C9D4920-0969-4530-9075-09140F8978D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04A5C4AF-4E58-4F50-8A71-05C951334F1F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{919D4543-F0F9-4C09-9BCF-62E11E2BC637}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42976A63-C634-4E7B-9471-A47456AC2812}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E3FE34F4-76E4-46EB-8081-8FB00979B999}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11649,7 +11649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE35686-5B13-43E8-A143-792EF22526E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BAE2DA-16B6-41B2-9239-3EB27C612BC1}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12921,18 +12921,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82F07FDF-8556-4355-B991-BC92A276366D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAA637F2-5C93-47B0-A07F-25B01B1A6CB4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B3B60FE-42F4-4A7F-BDAF-9F17F72AAF53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FD846B8D-8E8F-4FC6-9C3B-4CD9271BC668}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EE946BC-B3BF-4293-806D-7C607D77C9DA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC0FAF51-3A10-4F72-AE30-FE5A8A9E39BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20AF1FBB-B332-416E-A446-11B7304313BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1E34DCC-75C2-4301-B48D-C6F5B64A12FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCF1FC48-FD97-4760-8309-9E0977E805A6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{16ED74EE-ACF2-4DC6-BCEB-2F05F274E41A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2B73AEA-3C50-4794-A990-3E661E363459}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EBC1E104-382B-4F47-98EA-931B727568AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B840BAD4-5808-4E5D-A7F5-B14B1E3776D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A018C460-B392-454D-B0EE-02BD5DDDC9CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B4F1861-1CA6-448D-A3CD-66D9FC9EADE5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FE1B5987-532A-4B7F-9B1F-8AB1421BE773}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5539BB8A-C345-4B99-9480-EF0F00084361}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F3FD37A-93D8-4761-BD9B-947DC642E0D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9107F678-03C2-402B-BB43-308BF67EA2E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6576FC3D-70D9-42A8-9E57-F58E234A7130}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BB0B36F-47C1-4817-80B2-82CB06BB8C94}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F903CB73-A68E-45D3-B0DF-F85609E911BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B71B8AB-CA0E-480A-AF1F-0CF83D5C6ACC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4BD1B246-F523-4C46-BAF0-4AB4D5F9ED98}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12945,7 +12945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A076C1ED-4A10-456D-A2CE-CF3952C5C867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51DB78-B828-40AD-80E3-181A3275FC4A}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14205,18 +14205,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3457A2DD-83D1-4785-B82D-BDF53144C542}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4A5A38E-7B83-4942-A19F-60861C7C08C3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1997675B-D742-47F6-9621-1391B76F6D35}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4CB093E-B007-4E4B-8960-1CE2FD31F42C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D7231FE-3640-4092-BC04-10D223520BE6}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C326E23C-E520-42B1-92F7-4DDA439CB3A3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD22B178-06B3-4DB7-82DC-68267AD67700}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{336053A4-859D-447C-B74A-91F657F5AA88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88948AC0-AC9D-4CC7-AC27-8C753B28190E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BA815100-AAF5-43DE-B12F-56FD3021E8A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{04A2CED5-7ED8-4802-B980-B1C52EA43ED4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAF62C0E-374E-41E6-AC1C-4AECA48577FF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9836AB5C-DAE7-4B5D-A783-2235F60404B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{097F5E87-5BAC-4839-85DE-EAA8E2495591}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3EF1CFD8-D672-4704-81D2-4EFE9C8245F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7FE9ABD6-3B04-4ACC-94C6-EDBC2A7C19C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3B8F7C5-8758-4C2C-B1CE-201DEA4A7D74}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F97DEE68-8E8E-43B8-B861-E450F721E1B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2356F868-4860-4595-B2BA-4385A1097CC1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1910B24B-0173-4F6E-9A0F-0A3176B3DB5A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E535DBF-A0D7-407A-91FC-121372AB35E3}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1E4E6C80-28AF-4094-82BE-2AA0EBA14AF6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A068A850-8D6C-4CE4-8DF4-BFEE24DA1695}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9890C09C-5D90-48D7-A82F-73791EC988DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14229,7 +14229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069B53B6-C149-4B7B-86F6-235AA3B9D3A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66BEF52-4D03-4737-B3C7-1F28DF4990F5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15483,18 +15483,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A047A07A-AB1C-4C1B-837A-88A2CAC66EB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BF66B70-A3D1-4E4F-9CEE-B4CFB97145FD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{481F97B0-7CC8-4AC6-8C69-423248B2E393}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0675034D-B92E-48F5-8D8A-6684D04B581F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF824348-70EC-452F-AC68-E00B416FE755}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{562BC5D8-45B8-4C1F-BABD-B352984DEF31}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47576515-134D-4F50-99EB-147DE3C41B08}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89B2924C-45C6-4A40-9D85-93677C3050E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EDFBEA4C-2E72-40FD-A2BF-984F95E231CF}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C0D4DDEA-97E8-417C-8353-D6E0EF69BA9D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1308857-6A0F-4227-A919-D01EC22C44B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7C3C501-024B-42BF-A24E-15655266AD7B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51452698-9109-4EA9-86B6-8C2C4390B8BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBFAAD2F-5914-46B5-B51E-0482DA23033A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2AD20C4E-2094-42B7-A2AE-70B986619ABA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DDCC0B7F-1C1F-4ACF-BAD2-9E5BEBA6B02E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE194D62-7E2C-499C-AD3D-DBA8239BC3D2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5810CE8E-BA17-445E-AAEB-DA768E071D7E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B7BA58B-3D2F-49C2-9F7F-260D2963CAD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70670F8B-9EE2-4BB5-B17A-DA98449F6E73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DC1AD6D-7927-41CD-84F8-C715EF49C703}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{55D553C5-5E8C-4FD1-8B6F-2923318A301C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A732A91D-CB88-4E72-8B51-DA4E58096157}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5788B2B4-16C7-4941-8B68-CE56B68BBAAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15507,7 +15507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8310C9B-7361-43F6-98A0-CD6EEBF1516B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9626352-364C-4932-9C02-F5CDBA34A880}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16757,18 +16757,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F100FDD-791A-4903-8A1A-5542A6E5058A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BC5BB67-3B4C-4682-96DF-41B3EFBFE8AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6BB05280-F1FE-4E06-81C0-CD18AF52D416}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A4382454-8798-4DBC-A108-A7527DC52AFA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D71A92C-78FB-40A4-881C-6CBA506BF666}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6B7575A6-1562-40DA-AC57-0A873BA844FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7911CF79-E7E0-47A9-98B0-F2D5E58619B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44A74421-217C-4D9E-8C88-479B5F7111F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F799D673-DFC8-4137-9D40-76AB9737D019}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3E042920-C51C-40BE-AC39-19C8414795B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9315BFC9-23C7-43F6-921F-BAD00FE2E1D1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{33FE1053-C0C0-42F6-929C-2A6EA986AFAC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16BFD8BA-DABC-4193-B681-D91D2A3BD59E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFB92A13-D8B2-4076-A6D7-37CE3730FE09}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3EF5371-CF7D-4188-B314-FECCD67EE156}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68790D61-DF7E-4C8B-BFAE-B3612667A116}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF94EBBE-DE9F-49C2-AEAE-420936FBD0F9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B7ADDF6D-06AA-4B4C-9FF4-521F0E563C0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D44D4017-06B8-42F9-815E-F09A88E1A27F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B362BFF-44D5-4DBB-BA96-380BADA7D711}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56362002-940E-4FC9-A655-71D8178F0D99}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9F995FB0-A9C7-42F9-836B-331BD9A14A04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{071E9356-85E5-4054-B80B-C7F20C4BE98E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9110FA80-90FA-4947-A100-9E3673A5D92E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
